--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Matriz-de-responsabilidades.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Matriz-de-responsabilidades.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Control de Cambios" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="192">
   <si>
     <t xml:space="preserve">Actividad </t>
   </si>
@@ -588,13 +588,16 @@
   </si>
   <si>
     <t>I/C/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA y Asociados </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +690,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -914,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,75 +1012,72 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1081,6 +1088,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1101,41 +1129,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
+      <xdr:rowOff>1523999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0 Imagen"/>
+        <xdr:cNvPr id="4" name="3 Imagen" descr="F:\logo.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="20675" t="22801" r="17662" b="27828"/>
+        <a:srcRect l="17828" t="21111" r="16324" b="30000"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2590801" y="228600"/>
-          <a:ext cx="2324100" cy="1143000"/>
+          <a:off x="1733550" y="247648"/>
+          <a:ext cx="4714875" cy="1466851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1438,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,13 +1479,31 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1469,63 +1516,63 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1542,89 +1589,89 @@
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36">
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="62">
         <v>1.2</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="35">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="39">
         <v>42144</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,55 +1688,55 @@
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="35">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="39">
         <v>42144</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1706,55 +1753,55 @@
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="35">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="39">
         <v>42145</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,14 +1818,14 @@
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,11 +1840,11 @@
       <c r="E29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1812,11 +1859,11 @@
       <c r="E30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,11 +1876,11 @@
       <c r="E31" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="17"/>
@@ -1857,9 +1904,9 @@
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1876,74 +1923,74 @@
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="36">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38">
         <v>1</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="36" t="s">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="35">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="39">
         <v>42144</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="36" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1960,14 +2007,14 @@
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1982,11 +2029,11 @@
       <c r="E43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1995,9 +2042,9 @@
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2006,9 +2053,9 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2023,39 +2070,7 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C5:H7"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F31:H31"/>
+  <mergeCells count="49">
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="C2:H2"/>
@@ -2072,6 +2087,39 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2082,7 +2130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
@@ -5119,11 +5167,11 @@
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="59" t="s">
+      <c r="E138" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F138" s="60"/>
-      <c r="G138" s="61"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="60"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
       <c r="J138" s="10"/>
@@ -5136,10 +5184,10 @@
       <c r="E139" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F139" s="58" t="s">
+      <c r="F139" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G139" s="58"/>
+      <c r="G139" s="57"/>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
@@ -5152,10 +5200,10 @@
       <c r="E140" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="58" t="s">
+      <c r="F140" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G140" s="58"/>
+      <c r="G140" s="57"/>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10"/>
@@ -5168,10 +5216,10 @@
       <c r="E141" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F141" s="58" t="s">
+      <c r="F141" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="G141" s="58"/>
+      <c r="G141" s="57"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
       <c r="J141" s="10"/>
@@ -5184,10 +5232,10 @@
       <c r="E142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="58" t="s">
+      <c r="F142" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G142" s="58"/>
+      <c r="G142" s="57"/>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
       <c r="J142" s="10"/>

--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Matriz-de-responsabilidades.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/TMv3-Matriz-de-responsabilidades.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="600" yWindow="105" windowWidth="16515" windowHeight="6210"/>
   </bookViews>
   <sheets>
-    <sheet name="Control de Cambios" sheetId="1" r:id="rId1"/>
-    <sheet name="Matriz de Responsabilidades" sheetId="2" r:id="rId2"/>
+    <sheet name="Identificador" sheetId="1" r:id="rId1"/>
+    <sheet name="Control de Cambios" sheetId="3" r:id="rId2"/>
+    <sheet name="Matriz de Responsabilidades" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="192">
   <si>
     <t xml:space="preserve">Actividad </t>
   </si>
@@ -597,7 +598,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +694,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -924,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,9 +949,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,70 +1018,97 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,26 +1123,38 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1470,7 +1515,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,22 +1533,22 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1519,60 +1564,60 @@
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,16 +1634,16 @@
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="62">
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59">
         <v>1.2</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1609,11 +1654,11 @@
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1624,11 +1669,11 @@
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="39">
+      <c r="F13" s="34">
         <v>42144</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1639,26 +1684,26 @@
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1669,9 +1714,9 @@
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,14 +1733,14 @@
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1716,16 +1761,16 @@
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="39">
+      <c r="F20" s="34">
         <v>42144</v>
       </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1734,9 +1779,9 @@
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1753,14 +1798,14 @@
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1781,16 +1826,16 @@
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="39">
+      <c r="F25" s="34">
         <v>42145</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1799,9 +1844,9 @@
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1818,14 +1863,14 @@
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1850,63 +1895,63 @@
     <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>42147</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>1.2</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="15">
         <v>42149</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="19"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="19"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,142 +1965,54 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38">
-        <v>1</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="39">
-        <v>42144</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2070,29 +2027,20 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F31:H31"/>
+  <mergeCells count="35">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="C16:E16"/>
@@ -2107,19 +2055,14 @@
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C5:H7"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2127,6 +2070,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+    </row>
+    <row r="5" spans="1:6" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:6" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+    </row>
+    <row r="7" spans="1:6" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="72">
+        <v>42144</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+    </row>
+    <row r="8" spans="1:6" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+    </row>
+    <row r="9" spans="1:6" s="71" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="12" spans="1:6" s="71" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" spans="1:6" s="71" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="33">
+        <v>42147</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="33">
+        <v>42149</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
@@ -2149,137 +2258,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" s="32" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="29" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2298,14 +2407,14 @@
       <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2322,14 +2431,14 @@
         <v>13</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2346,14 +2455,14 @@
         <v>13</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2370,14 +2479,14 @@
         <v>13</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2396,14 +2505,14 @@
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2420,14 +2529,14 @@
         <v>13</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
@@ -2444,14 +2553,14 @@
         <v>16</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2468,14 +2577,14 @@
         <v>13</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2492,14 +2601,14 @@
         <v>13</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2516,14 +2625,14 @@
         <v>13</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2540,14 +2649,14 @@
         <v>13</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2564,42 +2673,42 @@
         <v>13</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
@@ -2616,14 +2725,14 @@
         <v>13</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2642,14 +2751,14 @@
       <c r="I24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
@@ -2668,14 +2777,14 @@
       <c r="I25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="10"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
         <v>14</v>
       </c>
@@ -2694,14 +2803,14 @@
       <c r="I26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="10"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2720,14 +2829,14 @@
       <c r="I27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="10"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2746,14 +2855,14 @@
       <c r="I28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="34" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
@@ -2772,14 +2881,14 @@
       <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="10"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
@@ -2796,28 +2905,28 @@
         <v>18</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="2" t="s">
         <v>186</v>
       </c>
@@ -2834,14 +2943,14 @@
         <v>13</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="2" t="s">
         <v>186</v>
       </c>
@@ -2858,14 +2967,14 @@
         <v>13</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="2" t="s">
         <v>186</v>
       </c>
@@ -2882,14 +2991,14 @@
         <v>13</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="2" t="s">
         <v>186</v>
       </c>
@@ -2906,14 +3015,14 @@
         <v>13</v>
       </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="34" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="2" t="s">
         <v>186</v>
       </c>
@@ -2930,14 +3039,14 @@
         <v>13</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="15"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="2" t="s">
         <v>186</v>
       </c>
@@ -2954,14 +3063,14 @@
         <v>13</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="34" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="2" t="s">
         <v>186</v>
       </c>
@@ -2978,14 +3087,14 @@
         <v>13</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="10"/>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="15"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="2" t="s">
         <v>186</v>
       </c>
@@ -3002,14 +3111,14 @@
         <v>13</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="15"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="2" t="s">
         <v>186</v>
       </c>
@@ -3026,14 +3135,14 @@
         <v>13</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="2" t="s">
         <v>186</v>
       </c>
@@ -3050,28 +3159,28 @@
         <v>13</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="10"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="33" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="7"/>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="34" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="15"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3088,14 +3197,14 @@
         <v>13</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="10"/>
+      <c r="J43" s="7"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="34" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="2" t="s">
         <v>14</v>
       </c>
@@ -3112,14 +3221,14 @@
         <v>13</v>
       </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="34" t="s">
+      <c r="A45" s="7"/>
+      <c r="B45" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="2" t="s">
         <v>14</v>
       </c>
@@ -3136,14 +3245,14 @@
         <v>13</v>
       </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="10"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="34" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="2" t="s">
         <v>14</v>
       </c>
@@ -3160,28 +3269,28 @@
         <v>13</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="33" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="15"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="34" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="16"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="2" t="s">
         <v>14</v>
       </c>
@@ -3198,14 +3307,14 @@
         <v>13</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="15"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
@@ -3222,28 +3331,28 @@
         <v>13</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="10"/>
+      <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="33" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="10"/>
+      <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="15"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="2" t="s">
         <v>19</v>
       </c>
@@ -3260,14 +3369,14 @@
         <v>13</v>
       </c>
       <c r="I51" s="4"/>
-      <c r="J51" s="10"/>
+      <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="15"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="2" t="s">
         <v>19</v>
       </c>
@@ -3284,14 +3393,14 @@
         <v>13</v>
       </c>
       <c r="I52" s="4"/>
-      <c r="J52" s="10"/>
+      <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="16"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="2" t="s">
         <v>19</v>
       </c>
@@ -3306,14 +3415,14 @@
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="10"/>
+      <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
@@ -3330,14 +3439,14 @@
         <v>13</v>
       </c>
       <c r="I54" s="4"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="7"/>
+      <c r="B55" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="15"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
@@ -3354,28 +3463,28 @@
         <v>13</v>
       </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="10"/>
+      <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="34" t="s">
+      <c r="A57" s="7"/>
+      <c r="B57" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
@@ -3392,14 +3501,14 @@
         <v>13</v>
       </c>
       <c r="I57" s="4"/>
-      <c r="J57" s="10"/>
+      <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="34" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="2" t="s">
         <v>19</v>
       </c>
@@ -3416,14 +3525,14 @@
         <v>13</v>
       </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="34" t="s">
+      <c r="A59" s="7"/>
+      <c r="B59" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3440,14 +3549,14 @@
         <v>13</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="10"/>
+      <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="7"/>
+      <c r="B60" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="2" t="s">
         <v>19</v>
       </c>
@@ -3464,14 +3573,14 @@
         <v>13</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="10"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="7"/>
+      <c r="B61" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="15"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3488,28 +3597,28 @@
         <v>13</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="10"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="10"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="7"/>
+      <c r="B63" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3526,14 +3635,14 @@
         <v>13</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="10"/>
+      <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="34" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="2" t="s">
         <v>19</v>
       </c>
@@ -3550,14 +3659,14 @@
         <v>13</v>
       </c>
       <c r="I64" s="4"/>
-      <c r="J64" s="10"/>
+      <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="7"/>
+      <c r="B65" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="15"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
@@ -3574,14 +3683,14 @@
         <v>13</v>
       </c>
       <c r="I65" s="4"/>
-      <c r="J65" s="10"/>
+      <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="34" t="s">
+      <c r="A66" s="7"/>
+      <c r="B66" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
@@ -3598,14 +3707,14 @@
         <v>13</v>
       </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="34" t="s">
+      <c r="A67" s="7"/>
+      <c r="B67" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="2" t="s">
         <v>19</v>
       </c>
@@ -3622,28 +3731,28 @@
         <v>13</v>
       </c>
       <c r="I67" s="4"/>
-      <c r="J67" s="10"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="7"/>
+      <c r="B68" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="16"/>
+      <c r="C68" s="13"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="10"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="34" t="s">
+      <c r="A69" s="7"/>
+      <c r="B69" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="15"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="2" t="s">
         <v>19</v>
       </c>
@@ -3660,14 +3769,14 @@
         <v>13</v>
       </c>
       <c r="I69" s="4"/>
-      <c r="J69" s="10"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="34" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
@@ -3684,14 +3793,14 @@
         <v>13</v>
       </c>
       <c r="I70" s="4"/>
-      <c r="J70" s="10"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="34" t="s">
+      <c r="A71" s="7"/>
+      <c r="B71" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="15"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="2" t="s">
         <v>19</v>
       </c>
@@ -3708,14 +3817,14 @@
         <v>13</v>
       </c>
       <c r="I71" s="4"/>
-      <c r="J71" s="10"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="34" t="s">
+      <c r="A72" s="7"/>
+      <c r="B72" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
@@ -3732,14 +3841,14 @@
         <v>13</v>
       </c>
       <c r="I72" s="4"/>
-      <c r="J72" s="10"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="34" t="s">
+      <c r="A73" s="7"/>
+      <c r="B73" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="15"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="2" t="s">
         <v>19</v>
       </c>
@@ -3756,28 +3865,28 @@
         <v>13</v>
       </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="10"/>
+      <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="33" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="16"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="10"/>
+      <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="34" t="s">
+      <c r="A75" s="7"/>
+      <c r="B75" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="2" t="s">
         <v>19</v>
       </c>
@@ -3794,14 +3903,14 @@
         <v>13</v>
       </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="10"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="34" t="s">
+      <c r="A76" s="7"/>
+      <c r="B76" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="15"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
@@ -3818,14 +3927,14 @@
         <v>13</v>
       </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="10"/>
+      <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="34" t="s">
+      <c r="A77" s="7"/>
+      <c r="B77" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="15"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="2" t="s">
         <v>19</v>
       </c>
@@ -3842,14 +3951,14 @@
         <v>13</v>
       </c>
       <c r="I77" s="4"/>
-      <c r="J77" s="10"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="34" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="15"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="2" t="s">
         <v>19</v>
       </c>
@@ -3866,14 +3975,14 @@
         <v>13</v>
       </c>
       <c r="I78" s="4"/>
-      <c r="J78" s="10"/>
+      <c r="J78" s="7"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="34" t="s">
+      <c r="A79" s="7"/>
+      <c r="B79" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="15"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="2" t="s">
         <v>19</v>
       </c>
@@ -3890,28 +3999,28 @@
         <v>13</v>
       </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="7"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="33" t="s">
+      <c r="A80" s="7"/>
+      <c r="B80" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="10"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="34" t="s">
+      <c r="A81" s="7"/>
+      <c r="B81" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="15"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="2" t="s">
         <v>19</v>
       </c>
@@ -3928,14 +4037,14 @@
         <v>15</v>
       </c>
       <c r="I81" s="4"/>
-      <c r="J81" s="10"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="34" t="s">
+      <c r="A82" s="7"/>
+      <c r="B82" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="15"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="2" t="s">
         <v>19</v>
       </c>
@@ -3952,14 +4061,14 @@
         <v>15</v>
       </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="10"/>
+      <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="34" t="s">
+      <c r="A83" s="7"/>
+      <c r="B83" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="15"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="2" t="s">
         <v>19</v>
       </c>
@@ -3976,14 +4085,14 @@
         <v>15</v>
       </c>
       <c r="I83" s="4"/>
-      <c r="J83" s="10"/>
+      <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="34" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="15"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="2" t="s">
         <v>19</v>
       </c>
@@ -4000,14 +4109,14 @@
         <v>15</v>
       </c>
       <c r="I84" s="4"/>
-      <c r="J84" s="10"/>
+      <c r="J84" s="7"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="34" t="s">
+      <c r="A85" s="7"/>
+      <c r="B85" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C85" s="15"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="2" t="s">
         <v>19</v>
       </c>
@@ -4026,42 +4135,42 @@
       <c r="I85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="10"/>
+      <c r="J85" s="7"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="33" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="10"/>
+      <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="33" t="s">
+      <c r="A87" s="7"/>
+      <c r="B87" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C87" s="15"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="10"/>
+      <c r="J87" s="7"/>
     </row>
     <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="34" t="s">
+      <c r="A88" s="7"/>
+      <c r="B88" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C88" s="15"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="2" t="s">
         <v>19</v>
       </c>
@@ -4078,14 +4187,14 @@
         <v>13</v>
       </c>
       <c r="I88" s="2"/>
-      <c r="J88" s="10"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="34" t="s">
+      <c r="A89" s="7"/>
+      <c r="B89" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="15"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="2" t="s">
         <v>19</v>
       </c>
@@ -4102,14 +4211,14 @@
         <v>13</v>
       </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="10"/>
+      <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="34" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="2" t="s">
         <v>19</v>
       </c>
@@ -4128,14 +4237,14 @@
       <c r="I90" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J90" s="10"/>
+      <c r="J90" s="7"/>
     </row>
     <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="34" t="s">
+      <c r="A91" s="7"/>
+      <c r="B91" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C91" s="15"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="2" t="s">
         <v>189</v>
       </c>
@@ -4154,28 +4263,28 @@
       <c r="I91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="10"/>
+      <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="33" t="s">
+      <c r="A92" s="7"/>
+      <c r="B92" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="16"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="10"/>
+      <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="34" t="s">
+      <c r="A93" s="7"/>
+      <c r="B93" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="15"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="2" t="s">
         <v>186</v>
       </c>
@@ -4192,14 +4301,14 @@
         <v>13</v>
       </c>
       <c r="I93" s="4"/>
-      <c r="J93" s="10"/>
+      <c r="J93" s="7"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="34" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C94" s="15"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="2" t="s">
         <v>186</v>
       </c>
@@ -4216,14 +4325,14 @@
         <v>13</v>
       </c>
       <c r="I94" s="4"/>
-      <c r="J94" s="10"/>
+      <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="34" t="s">
+      <c r="A95" s="7"/>
+      <c r="B95" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="C95" s="15"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="2" t="s">
         <v>186</v>
       </c>
@@ -4240,14 +4349,14 @@
         <v>13</v>
       </c>
       <c r="I95" s="4"/>
-      <c r="J95" s="10"/>
+      <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="34" t="s">
+      <c r="A96" s="7"/>
+      <c r="B96" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="15"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="2" t="s">
         <v>186</v>
       </c>
@@ -4264,14 +4373,14 @@
         <v>13</v>
       </c>
       <c r="I96" s="4"/>
-      <c r="J96" s="10"/>
+      <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="34" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="16"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="2" t="s">
         <v>14</v>
       </c>
@@ -4288,14 +4397,14 @@
         <v>13</v>
       </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="10"/>
+      <c r="J97" s="7"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="34" t="s">
+      <c r="A98" s="7"/>
+      <c r="B98" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="15"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="2" t="s">
         <v>14</v>
       </c>
@@ -4312,28 +4421,28 @@
         <v>13</v>
       </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="10"/>
+      <c r="J98" s="7"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="33" t="s">
+      <c r="A99" s="7"/>
+      <c r="B99" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C99" s="15"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="2"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="10"/>
+      <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="34" t="s">
+      <c r="A100" s="7"/>
+      <c r="B100" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C100" s="15"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="2" t="s">
         <v>19</v>
       </c>
@@ -4350,14 +4459,14 @@
         <v>13</v>
       </c>
       <c r="I100" s="4"/>
-      <c r="J100" s="10"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="34" t="s">
+      <c r="A101" s="7"/>
+      <c r="B101" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C101" s="15"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="2" t="s">
         <v>19</v>
       </c>
@@ -4374,14 +4483,14 @@
         <v>13</v>
       </c>
       <c r="I101" s="4"/>
-      <c r="J101" s="10"/>
+      <c r="J101" s="7"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="34" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="15"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="2" t="s">
         <v>19</v>
       </c>
@@ -4398,14 +4507,14 @@
         <v>13</v>
       </c>
       <c r="I102" s="4"/>
-      <c r="J102" s="10"/>
+      <c r="J102" s="7"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="34" t="s">
+      <c r="A103" s="7"/>
+      <c r="B103" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="15"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="2" t="s">
         <v>19</v>
       </c>
@@ -4422,14 +4531,14 @@
         <v>13</v>
       </c>
       <c r="I103" s="4"/>
-      <c r="J103" s="10"/>
+      <c r="J103" s="7"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="34" t="s">
+      <c r="A104" s="7"/>
+      <c r="B104" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C104" s="16"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="2" t="s">
         <v>19</v>
       </c>
@@ -4446,28 +4555,28 @@
         <v>13</v>
       </c>
       <c r="I104" s="4"/>
-      <c r="J104" s="10"/>
+      <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="33" t="s">
+      <c r="A105" s="7"/>
+      <c r="B105" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C105" s="13"/>
+      <c r="C105" s="10"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="10"/>
+      <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="34" t="s">
+      <c r="A106" s="7"/>
+      <c r="B106" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C106" s="15"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="2" t="s">
         <v>19</v>
       </c>
@@ -4484,14 +4593,14 @@
         <v>15</v>
       </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="10"/>
+      <c r="J106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="34" t="s">
+      <c r="A107" s="7"/>
+      <c r="B107" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="15"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="2" t="s">
         <v>19</v>
       </c>
@@ -4508,14 +4617,14 @@
         <v>15</v>
       </c>
       <c r="I107" s="4"/>
-      <c r="J107" s="10"/>
+      <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="34" t="s">
+      <c r="A108" s="7"/>
+      <c r="B108" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="15"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="2" t="s">
         <v>19</v>
       </c>
@@ -4532,14 +4641,14 @@
         <v>15</v>
       </c>
       <c r="I108" s="4"/>
-      <c r="J108" s="10"/>
+      <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="34" t="s">
+      <c r="A109" s="7"/>
+      <c r="B109" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="15"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="2" t="s">
         <v>19</v>
       </c>
@@ -4556,14 +4665,14 @@
         <v>15</v>
       </c>
       <c r="I109" s="4"/>
-      <c r="J109" s="10"/>
+      <c r="J109" s="7"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="34" t="s">
+      <c r="A110" s="7"/>
+      <c r="B110" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="15"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="2" t="s">
         <v>19</v>
       </c>
@@ -4582,42 +4691,42 @@
       <c r="I110" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J110" s="10"/>
+      <c r="J110" s="7"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="33" t="s">
+      <c r="A111" s="7"/>
+      <c r="B111" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="10"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="10"/>
+      <c r="J111" s="7"/>
     </row>
     <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="33" t="s">
+      <c r="A112" s="7"/>
+      <c r="B112" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="C112" s="15"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="10"/>
+      <c r="J112" s="7"/>
     </row>
     <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="34" t="s">
+      <c r="A113" s="7"/>
+      <c r="B113" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="15"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="2" t="s">
         <v>189</v>
       </c>
@@ -4634,28 +4743,28 @@
         <v>13</v>
       </c>
       <c r="I113" s="2"/>
-      <c r="J113" s="10"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="33" t="s">
+      <c r="A114" s="7"/>
+      <c r="B114" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C114" s="15"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="10"/>
+      <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="34" t="s">
+      <c r="A115" s="7"/>
+      <c r="B115" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="15"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="2" t="s">
         <v>19</v>
       </c>
@@ -4672,14 +4781,14 @@
         <v>13</v>
       </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="10"/>
+      <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="34" t="s">
+      <c r="A116" s="7"/>
+      <c r="B116" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C116" s="15"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
@@ -4696,28 +4805,28 @@
         <v>13</v>
       </c>
       <c r="I116" s="2"/>
-      <c r="J116" s="10"/>
+      <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="33" t="s">
+      <c r="A117" s="7"/>
+      <c r="B117" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="10"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="10"/>
+      <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="34" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C118" s="15"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="2" t="s">
         <v>19</v>
       </c>
@@ -4734,14 +4843,14 @@
         <v>13</v>
       </c>
       <c r="I118" s="4"/>
-      <c r="J118" s="10"/>
+      <c r="J118" s="7"/>
     </row>
     <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="34" t="s">
+      <c r="A119" s="7"/>
+      <c r="B119" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C119" s="16"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="2" t="s">
         <v>19</v>
       </c>
@@ -4758,14 +4867,14 @@
         <v>13</v>
       </c>
       <c r="I119" s="4"/>
-      <c r="J119" s="10"/>
+      <c r="J119" s="7"/>
     </row>
     <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="34" t="s">
+      <c r="A120" s="7"/>
+      <c r="B120" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C120" s="15"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="2" t="s">
         <v>19</v>
       </c>
@@ -4782,14 +4891,14 @@
         <v>13</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="10"/>
+      <c r="J120" s="7"/>
     </row>
     <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="34" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="15"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="2" t="s">
         <v>19</v>
       </c>
@@ -4806,14 +4915,14 @@
         <v>13</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="10"/>
+      <c r="J121" s="7"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="34" t="s">
+      <c r="A122" s="7"/>
+      <c r="B122" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="10"/>
       <c r="D122" s="4" t="s">
         <v>19</v>
       </c>
@@ -4830,28 +4939,28 @@
         <v>13</v>
       </c>
       <c r="I122" s="4"/>
-      <c r="J122" s="10"/>
+      <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="33" t="s">
+      <c r="A123" s="7"/>
+      <c r="B123" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C123" s="16"/>
+      <c r="C123" s="13"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="10"/>
+      <c r="J123" s="7"/>
     </row>
     <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="34" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" s="10"/>
       <c r="D124" s="4" t="s">
         <v>19</v>
       </c>
@@ -4868,14 +4977,14 @@
         <v>188</v>
       </c>
       <c r="I124" s="4"/>
-      <c r="J124" s="10"/>
+      <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="34" t="s">
+      <c r="A125" s="7"/>
+      <c r="B125" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C125" s="15"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="2" t="s">
         <v>19</v>
       </c>
@@ -4892,28 +5001,28 @@
         <v>188</v>
       </c>
       <c r="I125" s="4"/>
-      <c r="J125" s="10"/>
+      <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="33" t="s">
+      <c r="A126" s="7"/>
+      <c r="B126" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C126" s="15"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="10"/>
+      <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="34" t="s">
+      <c r="A127" s="7"/>
+      <c r="B127" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="13"/>
+      <c r="C127" s="10"/>
       <c r="D127" s="4" t="s">
         <v>19</v>
       </c>
@@ -4932,14 +5041,14 @@
       <c r="I127" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J127" s="10"/>
+      <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="34" t="s">
+      <c r="A128" s="7"/>
+      <c r="B128" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="C128" s="15"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="2" t="s">
         <v>19</v>
       </c>
@@ -4958,28 +5067,28 @@
       <c r="I128" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J128" s="10"/>
+      <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="33" t="s">
+      <c r="A129" s="7"/>
+      <c r="B129" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C129" s="15"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="10"/>
+      <c r="J129" s="7"/>
     </row>
     <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="34" t="s">
+      <c r="A130" s="7"/>
+      <c r="B130" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="13"/>
+      <c r="C130" s="10"/>
       <c r="D130" s="4" t="s">
         <v>19</v>
       </c>
@@ -4998,14 +5107,14 @@
       <c r="I130" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J130" s="10"/>
+      <c r="J130" s="7"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="B131" s="34" t="s">
+      <c r="A131" s="7"/>
+      <c r="B131" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="15"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="2" t="s">
         <v>19</v>
       </c>
@@ -5024,14 +5133,14 @@
       <c r="I131" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J131" s="10"/>
+      <c r="J131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="34" t="s">
+      <c r="A132" s="7"/>
+      <c r="B132" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="15"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="2" t="s">
         <v>12</v>
       </c>
@@ -5048,14 +5157,14 @@
         <v>13</v>
       </c>
       <c r="I132" s="2"/>
-      <c r="J132" s="10"/>
+      <c r="J132" s="7"/>
     </row>
     <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="34" t="s">
+      <c r="A133" s="7"/>
+      <c r="B133" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C133" s="15"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="2" t="s">
         <v>12</v>
       </c>
@@ -5074,14 +5183,14 @@
       <c r="I133" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="10"/>
+      <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="34" t="s">
+      <c r="A134" s="7"/>
+      <c r="B134" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="15"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="2" t="s">
         <v>12</v>
       </c>
@@ -5098,14 +5207,14 @@
         <v>13</v>
       </c>
       <c r="I134" s="2"/>
-      <c r="J134" s="10"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="34" t="s">
+      <c r="A135" s="7"/>
+      <c r="B135" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C135" s="15"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="2" t="s">
         <v>12</v>
       </c>
@@ -5122,14 +5231,14 @@
         <v>16</v>
       </c>
       <c r="I135" s="2"/>
-      <c r="J135" s="10"/>
+      <c r="J135" s="7"/>
     </row>
     <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="34" t="s">
+      <c r="A136" s="7"/>
+      <c r="B136" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C136" s="15"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="2" t="s">
         <v>12</v>
       </c>
@@ -5148,109 +5257,109 @@
       <c r="I136" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J136" s="10"/>
+      <c r="J136" s="7"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="58" t="s">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F138" s="59"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
       <c r="E139" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F139" s="57" t="s">
+      <c r="F139" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="G139" s="57"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
+      <c r="G139" s="63"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
       <c r="E140" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="57" t="s">
+      <c r="F140" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G140" s="57"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
     </row>
     <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="F141" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G141" s="57"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
+      <c r="G141" s="63"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
     </row>
     <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
       <c r="E142" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="57" t="s">
+      <c r="F142" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="G142" s="57"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
+      <c r="G142" s="63"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
